--- a/nmadb/501287.xlsx
+++ b/nmadb/501287.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
@@ -11,16 +11,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Placebo</t>
   </si>
   <si>
@@ -28,9 +25,6 @@
   </si>
   <si>
     <t xml:space="preserve">Year </t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>t</t>
@@ -126,12 +120,18 @@
   <si>
     <t>Adrenaline+Steroid</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,7 +383,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Entrée" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,7 +400,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,7 +474,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -509,7 +508,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -685,14 +683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="24"/>
     <col min="2" max="2" width="9.7109375" style="24" bestFit="1" customWidth="1"/>
@@ -706,40 +704,40 @@
     <col min="11" max="11" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="24">
         <v>1998</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="24">
         <v>1</v>
@@ -754,10 +752,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="C3" s="24">
         <v>1</v>
       </c>
@@ -771,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="C4" s="24">
         <v>1</v>
       </c>
@@ -785,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="24">
         <v>1</v>
       </c>
@@ -812,10 +810,10 @@
         <v>2</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="C6" s="24">
         <v>1</v>
       </c>
@@ -833,15 +831,15 @@
         <v>3</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1">
       <c r="A7" s="25">
         <v>1998</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="25">
         <v>2</v>
@@ -860,11 +858,11 @@
         <v>4</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="C8" s="24">
         <v>2</v>
       </c>
@@ -882,16 +880,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="24">
         <v>2009</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="24">
         <v>3</v>
@@ -910,10 +908,10 @@
         <v>6</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24">
@@ -933,11 +931,11 @@
         <v>7</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="C11" s="24">
         <v>3</v>
       </c>
@@ -955,7 +953,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="C12" s="24">
         <v>3</v>
       </c>
@@ -973,12 +971,12 @@
       <c r="J12" s="16"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="24">
         <v>2007</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="24">
         <v>4</v>
@@ -997,7 +995,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="C14" s="24">
         <v>4</v>
       </c>
@@ -1015,12 +1013,12 @@
       <c r="J14" s="18"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="24">
         <v>2000</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="24">
         <v>5</v>
@@ -1039,7 +1037,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="C16" s="24">
         <v>5</v>
       </c>
@@ -1057,12 +1055,12 @@
       <c r="J16" s="18"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="24">
         <v>2009</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="24">
         <v>6</v>
@@ -1081,7 +1079,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="C18" s="24">
         <v>6</v>
       </c>
@@ -1099,12 +1097,12 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="24">
         <v>2002</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="24">
         <v>7</v>
@@ -1122,7 +1120,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="C20" s="24">
         <v>7</v>
       </c>
@@ -1138,12 +1136,12 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="24">
         <v>2005</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="24">
         <v>8</v>
@@ -1158,7 +1156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="C22" s="24">
         <v>8</v>
       </c>
@@ -1172,7 +1170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="C23" s="24">
         <v>8</v>
       </c>
@@ -1186,12 +1184,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="24">
         <v>2005</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="24">
         <v>9</v>
@@ -1206,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="C25" s="24">
         <v>9</v>
       </c>
@@ -1221,7 +1219,7 @@
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="C26" s="24">
         <v>9</v>
       </c>
@@ -1236,12 +1234,12 @@
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="24">
         <v>1995</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="24">
         <v>10</v>
@@ -1257,7 +1255,7 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="C28" s="24">
         <v>10</v>
       </c>
@@ -1271,12 +1269,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="24">
         <v>2004</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="24">
         <v>11</v>
@@ -1291,7 +1289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="C30" s="24">
         <v>11</v>
       </c>
@@ -1305,12 +1303,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="24">
         <v>1992</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="24">
         <v>12</v>
@@ -1325,7 +1323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="C32" s="24">
         <v>12</v>
       </c>
@@ -1339,12 +1337,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="24">
         <v>2004</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="24">
         <v>13</v>
@@ -1359,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="C34" s="24">
         <v>13</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="C35" s="24">
         <v>13</v>
       </c>
@@ -1387,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="C36" s="24">
         <v>13</v>
       </c>
@@ -1401,12 +1399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="24">
         <v>1990</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37" s="24">
         <v>14</v>
@@ -1421,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="C38" s="24">
         <v>14</v>
       </c>
@@ -1443,12 +1441,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1456,12 +1454,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
